--- a/data/raw/vectrino 190220/metadata.xlsx
+++ b/data/raw/vectrino 190220/metadata.xlsx
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>vectrino position metadata</t>
   </si>
   <si>
-    <t>z (cm)</t>
-  </si>
-  <si>
-    <t>y (cm)</t>
-  </si>
-  <si>
     <t>x (upstream, in dowels, downstream)</t>
   </si>
   <si>
@@ -42,6 +36,24 @@
   </si>
   <si>
     <t>upstream</t>
+  </si>
+  <si>
+    <t>in dowels</t>
+  </si>
+  <si>
+    <t>z (cm from bottom)</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>y (dist from sides: 6 cm; m(iddle), l(eft), r(ight); looking downstream)</t>
   </si>
 </sst>
 </file>
@@ -359,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,27 +386,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>30</v>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -404,11 +416,11 @@
       <c r="A5">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>5.75</v>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -418,14 +430,56 @@
       <c r="A6">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>54</v>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
